--- a/DAM_DataMap.xlsx
+++ b/DAM_DataMap.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newla\Desktop\NSS\Capstone Options\DAM Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD13E70-3A45-4CF2-9CE0-224A4300C842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857F5F5-B2BE-4CB5-8217-8C7C4BDFD57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE5A5793-8644-4C85-B61D-7334701E191C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="DataMap" sheetId="1" r:id="rId1"/>
     <sheet name="Storyboard-ToDo" sheetId="2" r:id="rId2"/>
+    <sheet name="SB-Clipboards" sheetId="3" r:id="rId3"/>
+    <sheet name="SB-Searches" sheetId="4" r:id="rId4"/>
+    <sheet name="SB-downloads" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="203">
   <si>
     <t>clipboards</t>
   </si>
@@ -48,12 +51,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>editor_rating</t>
-  </si>
-  <si>
-    <t>added_to_clipboard</t>
-  </si>
-  <si>
     <t>downloads</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>server_name</t>
   </si>
   <si>
-    <t>fie_size</t>
-  </si>
-  <si>
     <t>last_status_update</t>
   </si>
   <si>
@@ -405,9 +399,6 @@
     <t>Text Page 2</t>
   </si>
   <si>
-    <t>What are our recommendations for DAM Community Growth and continued success</t>
-  </si>
-  <si>
     <t>Text Page 3</t>
   </si>
   <si>
@@ -430,13 +421,851 @@
   </si>
   <si>
     <t>KEYWORDS</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>User's action</t>
+  </si>
+  <si>
+    <t>Accessed</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Request ID</t>
+  </si>
+  <si>
+    <t>Asset Form</t>
+  </si>
+  <si>
+    <t>Asset title</t>
+  </si>
+  <si>
+    <t>Usage description</t>
+  </si>
+  <si>
+    <t>Admin Notes</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Original Filename: Assets_Full_Logs</t>
+  </si>
+  <si>
+    <t>Uniqe image ID number</t>
+  </si>
+  <si>
+    <t>Download, Print as PDF, or View</t>
+  </si>
+  <si>
+    <t>Date &amp; Time Format: Apr 18 2019  8:39PM</t>
+  </si>
+  <si>
+    <t>Name given to asset by Editor</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Not Needed</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t>Capstone, split out time</t>
+  </si>
+  <si>
+    <t>Capstone, Manual webscraping for VU vs. Non-VU, remove all OL</t>
+  </si>
+  <si>
+    <t>Use at a later date for User needs/experience analysis</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>SUCCESS BEHAVIOR: clipboards</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>API download - Original</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Container Download</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Crop Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Custom Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Medium res.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Medium res. comp., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Original</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Video Streaming format (720p)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Video Web Low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIEW_DETAILS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Watermarked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clipboard: Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Folder: Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Share via link:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Virtual folder: Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commercial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Editorial, All media types, One country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Editorial, All media types, Up to 10 countries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Editorial, All media types, Worldwide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Editorial, Book, One country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Editorial, Periodicals, One country, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Editorial, Periodicals, Up to 5 countries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Editorial, Periodicals, Worldwide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Editorial, Website and Email, One country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Editorial, Website and Email, Up to 5 countries, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Editorial, Website and Email, Worldwide, Internal Company Use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Other, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Personal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, NULL</t>
+    </r>
+  </si>
+  <si>
+    <t>First and last name &lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>* Explore aditional data for syndication as a revenue generator/ROI</t>
+  </si>
+  <si>
+    <t>What are my recommendations for DAM Community Growth and continued success</t>
+  </si>
+  <si>
+    <t>Top Image &amp; Title</t>
+  </si>
+  <si>
+    <t>Text Page 4</t>
+  </si>
+  <si>
+    <t>* Ask OL about this vs. User's Action column. *Would this contain all Clipboard, Share, and Virtual Folder for COUNT? *What does Search mean in this field?</t>
+  </si>
+  <si>
+    <t>* Ask OL about this vs. Context column. * Would this collect Download for COUNT?</t>
+  </si>
+  <si>
+    <t>Manual entry, Use at a later date to determine syndication options for Revenue generation/ROI. Learn how to build a drop down option list for this field (similar to Location field).</t>
+  </si>
+  <si>
+    <t>SUCCESS BEHAVIOR: searches</t>
+  </si>
+  <si>
+    <t>Original Filename: Search_Logs_Full</t>
+  </si>
+  <si>
+    <t>Unique User ID number</t>
+  </si>
+  <si>
+    <t>User email address</t>
+  </si>
+  <si>
+    <t>User last name</t>
+  </si>
+  <si>
+    <t>User first name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Staff</t>
+    </r>
+  </si>
+  <si>
+    <t>User country</t>
+  </si>
+  <si>
+    <t>Unser's company name</t>
+  </si>
+  <si>
+    <t>Image, Multiple</t>
+  </si>
+  <si>
+    <t>OR4ND000000063444</t>
+  </si>
+  <si>
+    <t>* Is this what a User has set as their default sort order?</t>
+  </si>
+  <si>
+    <t>* Chosen by the User?</t>
+  </si>
+  <si>
+    <t>Unique &amp; NULL</t>
+  </si>
+  <si>
+    <t>Keywords Users used in Search field</t>
+  </si>
+  <si>
+    <t>* Is this correct?</t>
+  </si>
+  <si>
+    <t>COUNT of assets returned based on keyword/s used in Search field</t>
+  </si>
+  <si>
+    <t>Response time from Search submission to Results returned</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BackEnd advanced search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BackEnd quick search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FrontEnd advanced search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FrontEnd quick search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>* Describe what each of these identifiers are.</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Not needed</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>Meet with OL for Q&amp;A. May not need downloads and shares DataSets due to User's action, Context, and Asset Form on clipboards</t>
+  </si>
+  <si>
+    <t>file_size</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>possible JOINS</t>
+  </si>
+  <si>
+    <t>SUCCESS BEHAVIOR: downloads</t>
+  </si>
+  <si>
+    <t>May need to swap out downloads DataSet with "Fulllogs of views and downloads Full"</t>
+  </si>
+  <si>
+    <t>May want to add a Department column to users for staff breakdown across VU</t>
+  </si>
+  <si>
+    <t>Need to finish definition tabs to confirm correct DataSets are pulled for data on all Success Behaviors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +1281,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,8 +1370,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -574,62 +1472,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -660,11 +1506,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -674,7 +1548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,39 +1557,92 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,427 +1957,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE59ED40-8E80-4B6A-AE01-CB602EF195C5}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="10" t="s">
-        <v>131</v>
+      <c r="A1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="A2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>25</v>
+      <c r="H2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
+      <c r="G4" s="52" t="s">
+        <v>133</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>51</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
+      <c r="D6" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>69</v>
+      <c r="A9" s="40" t="s">
+        <v>196</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>19</v>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="6" t="s">
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>22</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="50">
+        <v>43986</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="53"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="43">
+        <v>43986</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43">
+        <v>43986</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="51"/>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43">
+        <v>43986</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="51"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="43">
+        <v>43986</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1465,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78664C68-1B8A-4A23-A7F5-5B1D53EDCC7B}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,377 +2483,920 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="7"/>
       <c r="G1" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>91</v>
+      <c r="H2" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+        <v>121</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+        <v>121</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+        <v>92</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
         <v>111</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
         <v>111</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+        <v>108</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15">
         <v>8</v>
       </c>
       <c r="H15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>118</v>
-      </c>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE634A7-3EEA-4035-B489-773F7C9A395D}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="107.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="108" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57E1535-3C4C-46C4-B9BD-85EA0E9A900B}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.88671875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="60" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB175F-E5AC-495D-A781-CA53C418390F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DAM_DataMap.xlsx
+++ b/DAM_DataMap.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newla\Desktop\NSS\Capstone Options\DAM Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857F5F5-B2BE-4CB5-8217-8C7C4BDFD57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A8037-21B1-463D-BE70-3537295BCE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE5A5793-8644-4C85-B61D-7334701E191C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="871" activeTab="2" xr2:uid="{BE5A5793-8644-4C85-B61D-7334701E191C}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMap" sheetId="1" r:id="rId1"/>
     <sheet name="Storyboard-ToDo" sheetId="2" r:id="rId2"/>
-    <sheet name="SB-Clipboards" sheetId="3" r:id="rId3"/>
-    <sheet name="SB-Searches" sheetId="4" r:id="rId4"/>
-    <sheet name="SB-downloads" sheetId="5" r:id="rId5"/>
+    <sheet name="6-8-20 Questions" sheetId="12" r:id="rId3"/>
+    <sheet name="AD-uploads" sheetId="10" r:id="rId4"/>
+    <sheet name="UD-users" sheetId="9" r:id="rId5"/>
+    <sheet name="UD-logins" sheetId="7" r:id="rId6"/>
+    <sheet name="SB-searches" sheetId="4" r:id="rId7"/>
+    <sheet name="SB-downloads" sheetId="8" r:id="rId8"/>
+    <sheet name="SB-clipboards" sheetId="3" r:id="rId9"/>
+    <sheet name="SB-shares" sheetId="5" r:id="rId10"/>
+    <sheet name="K-keywords" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,239 +43,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="290">
   <si>
     <t>clipboards</t>
   </si>
   <si>
-    <t>unique_id</t>
-  </si>
-  <si>
-    <t>legacy_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>downloads</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>resolution</t>
-  </si>
-  <si>
-    <t>contact_unique_id</t>
-  </si>
-  <si>
-    <t>login_id</t>
-  </si>
-  <si>
-    <t>company_name</t>
-  </si>
-  <si>
-    <t>company_type</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>asset_unique_id</t>
-  </si>
-  <si>
-    <t>asset_type</t>
-  </si>
-  <si>
-    <t>asset_create_date</t>
-  </si>
-  <si>
-    <t>asset_headline</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>usage_description</t>
   </si>
   <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>searched</t>
-  </si>
-  <si>
     <t>keywords</t>
   </si>
   <si>
     <t>logins</t>
   </si>
   <si>
-    <t>date_time</t>
-  </si>
-  <si>
-    <t>ip_address</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>job_title</t>
-  </si>
-  <si>
-    <t>work_phone</t>
-  </si>
-  <si>
-    <t>fax</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>user_country</t>
-  </si>
-  <si>
-    <t>browser_version</t>
-  </si>
-  <si>
-    <t>reference_site_type</t>
-  </si>
-  <si>
-    <t>access_site</t>
-  </si>
-  <si>
-    <t>on_server</t>
-  </si>
-  <si>
     <t>searches</t>
   </si>
   <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>contact_type</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>search_type</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
-    <t>execution_time</t>
-  </si>
-  <si>
-    <t>search_origin</t>
-  </si>
-  <si>
-    <t>from_search_bot</t>
-  </si>
-  <si>
-    <t>search_bot_name</t>
-  </si>
-  <si>
     <t>shares</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>user_action</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>request_id</t>
-  </si>
-  <si>
-    <t>asset_format</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>admin_notes</t>
-  </si>
-  <si>
     <t>uploads</t>
   </si>
   <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>relative_path</t>
-  </si>
-  <si>
-    <t>upload_start</t>
-  </si>
-  <si>
-    <t>upload_end</t>
-  </si>
-  <si>
-    <t>uploaded_by</t>
-  </si>
-  <si>
-    <t>server_name</t>
-  </si>
-  <si>
-    <t>last_status_update</t>
-  </si>
-  <si>
-    <t>imported_as</t>
-  </si>
-  <si>
     <t>users</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>continent</t>
-  </si>
-  <si>
-    <t>contact_url</t>
-  </si>
-  <si>
-    <t>acct_mgr</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>SUCCESS BEHAVIORS</t>
   </si>
   <si>
@@ -375,18 +177,12 @@
     <t>Dashboard 4</t>
   </si>
   <si>
-    <t>Find out if Daniel knows how many assets are in Cumulus and their breakdown on types</t>
-  </si>
-  <si>
     <t>Page Type</t>
   </si>
   <si>
     <t>Data Story Page</t>
   </si>
   <si>
-    <t>TO FIND OUT</t>
-  </si>
-  <si>
     <t>What % of searches are &gt; 1 search? Breakdown of keyword search quantities</t>
   </si>
   <si>
@@ -477,9 +273,6 @@
     <t>Uniqe image ID number</t>
   </si>
   <si>
-    <t>Download, Print as PDF, or View</t>
-  </si>
-  <si>
     <t>Date &amp; Time Format: Apr 18 2019  8:39PM</t>
   </si>
   <si>
@@ -507,12 +300,6 @@
     <t>Capstone, split out time</t>
   </si>
   <si>
-    <t>Capstone, Manual webscraping for VU vs. Non-VU, remove all OL</t>
-  </si>
-  <si>
-    <t>Use at a later date for User needs/experience analysis</t>
-  </si>
-  <si>
     <t>columns</t>
   </si>
   <si>
@@ -1036,9 +823,6 @@
     </r>
   </si>
   <si>
-    <t>First and last name &lt;br/&gt;</t>
-  </si>
-  <si>
     <t>* Explore aditional data for syndication as a revenue generator/ROI</t>
   </si>
   <si>
@@ -1051,12 +835,6 @@
     <t>Text Page 4</t>
   </si>
   <si>
-    <t>* Ask OL about this vs. User's Action column. *Would this contain all Clipboard, Share, and Virtual Folder for COUNT? *What does Search mean in this field?</t>
-  </si>
-  <si>
-    <t>* Ask OL about this vs. Context column. * Would this collect Download for COUNT?</t>
-  </si>
-  <si>
     <t>Manual entry, Use at a later date to determine syndication options for Revenue generation/ROI. Learn how to build a drop down option list for this field (similar to Location field).</t>
   </si>
   <si>
@@ -1125,12 +903,6 @@
     <t>* Is this what a User has set as their default sort order?</t>
   </si>
   <si>
-    <t>* Chosen by the User?</t>
-  </si>
-  <si>
-    <t>Unique &amp; NULL</t>
-  </si>
-  <si>
     <t>Keywords Users used in Search field</t>
   </si>
   <si>
@@ -1143,6 +915,36 @@
     <t>Response time from Search submission to Results returned</t>
   </si>
   <si>
+    <t>* Describe what each of these identifiers are.</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Not needed</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>SUCCESS BEHAVIOR: downloads</t>
+  </si>
+  <si>
+    <t>Original Filename: Full_Logs_View_Downloads</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Asset Format</t>
+  </si>
+  <si>
+    <t>Unique Image ID number</t>
+  </si>
+  <si>
+    <t>First name and last name with &lt;br/&gt;</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1151,6 +953,891 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Download</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Print as PDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View</t>
+    </r>
+  </si>
+  <si>
+    <t>User IP address</t>
+  </si>
+  <si>
+    <t>Similar to Asset Form on clipboards dataset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>API download - Original</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>API original download - Original</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container Download</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Custom Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Medium res.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Medium res. comp., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Original</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Video Streaming format (720p)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Video Web Low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIEW_DETAILS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Watermarked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, NULL</t>
+    </r>
+  </si>
+  <si>
+    <t>Use at a later date for User needs/experience analysis. Similar to Asset format on downloads dataset.</t>
+  </si>
+  <si>
+    <t>Similar to Context on clipboards dataset</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Similar to User's Actions in clipboards and shares datasets.</t>
+  </si>
+  <si>
+    <t>* Ask OL about this vs. Context column. * Would this collect Download for COUNT? Similar to User's Actions in downlaods and shares datasets</t>
+  </si>
+  <si>
+    <t>User's IP address</t>
+  </si>
+  <si>
+    <t>Shape:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape: </t>
+  </si>
+  <si>
+    <t>Standardize column names</t>
+  </si>
+  <si>
+    <t>USER DATA: logins</t>
+  </si>
+  <si>
+    <t>Original Filename: Login_History</t>
+  </si>
+  <si>
+    <t>Search_Logs_Full</t>
+  </si>
+  <si>
+    <t>Assets_Full_Logs</t>
+  </si>
+  <si>
+    <t>Full_Logs_View_Downloads</t>
+  </si>
+  <si>
+    <t>Remove all Orange Logic Users</t>
+  </si>
+  <si>
+    <t>Remove all data After May 31, 2020</t>
+  </si>
+  <si>
+    <t>Downloads_Detailed</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Contact Unique identifier</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>login ID</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>Company type</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Asset Unique identifier</t>
+  </si>
+  <si>
+    <t>Asset Type</t>
+  </si>
+  <si>
+    <t>Asset Legacy Identifier</t>
+  </si>
+  <si>
+    <t>Asset create date</t>
+  </si>
+  <si>
+    <t>Asset Title</t>
+  </si>
+  <si>
+    <t>Asset Headline</t>
+  </si>
+  <si>
+    <t>Asset Description</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Original Filename: Downloads_Detailed</t>
+  </si>
+  <si>
+    <t>Size of asset User downloaded for their use</t>
+  </si>
+  <si>
+    <t>First and last name</t>
+  </si>
+  <si>
+    <t>User's company name</t>
+  </si>
+  <si>
+    <t>User's company type</t>
+  </si>
+  <si>
+    <t>User's email address</t>
+  </si>
+  <si>
+    <t>Inconsistently used</t>
+  </si>
+  <si>
+    <t>User's country</t>
+  </si>
+  <si>
+    <t>Users country</t>
+  </si>
+  <si>
+    <t>Unique Asset ID number</t>
+  </si>
+  <si>
+    <t>Asset Unique ID number from old DAM</t>
+  </si>
+  <si>
+    <t>Date asset was created</t>
+  </si>
+  <si>
+    <t>No Needed</t>
+  </si>
+  <si>
+    <t>Free form description field given to asset by Editor</t>
+  </si>
+  <si>
+    <t>Photographer/Videographer name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multimedia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Video</t>
+    </r>
+  </si>
+  <si>
+    <t>TO FIND</t>
+  </si>
+  <si>
+    <t>Compare download file types for how assets are being used (digital vs. print &amp; hi-res film)</t>
+  </si>
+  <si>
+    <t>Access date</t>
+  </si>
+  <si>
+    <t>IP address</t>
+  </si>
+  <si>
+    <t>Login ID</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Job title</t>
+  </si>
+  <si>
+    <t>Office phone</t>
+  </si>
+  <si>
+    <t>Office fax</t>
+  </si>
+  <si>
+    <t>Mobile phone</t>
+  </si>
+  <si>
+    <t>User Country</t>
+  </si>
+  <si>
+    <t>Browser Version</t>
+  </si>
+  <si>
+    <t>Reference Site type</t>
+  </si>
+  <si>
+    <t>Reference Site</t>
+  </si>
+  <si>
+    <t>On server</t>
+  </si>
+  <si>
+    <t>Users email address</t>
+  </si>
+  <si>
+    <t>User's job title</t>
+  </si>
+  <si>
+    <t>User's  work phone</t>
+  </si>
+  <si>
+    <t>User's work fax</t>
+  </si>
+  <si>
+    <t>User's mobile phone</t>
+  </si>
+  <si>
+    <t>external, noreference type, self</t>
+  </si>
+  <si>
+    <t>For OL use</t>
+  </si>
+  <si>
+    <t>Login _History</t>
+  </si>
+  <si>
+    <t>Unique identifier</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Contact type</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Search type</t>
+  </si>
+  <si>
+    <t>Sort Order</t>
+  </si>
+  <si>
+    <t>Search on</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>Search Origin</t>
+  </si>
+  <si>
+    <t>From Search Bot</t>
+  </si>
+  <si>
+    <t>Search Bot Name</t>
+  </si>
+  <si>
+    <t>All_Accounts</t>
+  </si>
+  <si>
+    <t>USER DATA: users</t>
+  </si>
+  <si>
+    <t>Original Filename: All_Accounts</t>
+  </si>
+  <si>
+    <t>Town / City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Contact url</t>
+  </si>
+  <si>
+    <t>Account manager</t>
+  </si>
+  <si>
+    <t>Company:</t>
+  </si>
+  <si>
+    <t>Administrator:</t>
+  </si>
+  <si>
+    <t>Groups for this contact</t>
+  </si>
+  <si>
+    <t>Standardize data types between like columns</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>User's industry</t>
+  </si>
+  <si>
+    <t>User's town city</t>
+  </si>
+  <si>
+    <t>User's state</t>
+  </si>
+  <si>
+    <t>User's continent</t>
+  </si>
+  <si>
+    <t>User's office phone</t>
+  </si>
+  <si>
+    <t>Refers to groups for system communications?</t>
+  </si>
+  <si>
+    <t>User's contact url, inconsistently used</t>
+  </si>
+  <si>
+    <t>User's office fax, inconsistently used</t>
+  </si>
+  <si>
+    <t>Capstone, remove all OL</t>
+  </si>
+  <si>
+    <t>Cleaning List</t>
+  </si>
+  <si>
+    <t>USER DATA: uploads</t>
+  </si>
+  <si>
+    <t>Original Filename: Uploads</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Relative path (when files are uploaded with their folder structure)</t>
+  </si>
+  <si>
+    <t>Queued for upload on</t>
+  </si>
+  <si>
+    <t>Upload finished on</t>
+  </si>
+  <si>
+    <t>Uploaded by</t>
+  </si>
+  <si>
+    <t>Server name</t>
+  </si>
+  <si>
+    <t>File size</t>
+  </si>
+  <si>
+    <t>Last status update</t>
+  </si>
+  <si>
+    <t>Imported as</t>
+  </si>
+  <si>
+    <t>Asset type</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Filname given by User before uploading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import failed, </t>
+  </si>
+  <si>
+    <t>System generated note on possible reasons for upload issues</t>
+  </si>
+  <si>
+    <t>Uploads</t>
+  </si>
+  <si>
+    <t>Need for mention of current storage capacity</t>
+  </si>
+  <si>
+    <t>Audio, Image, Other, Video</t>
+  </si>
+  <si>
+    <t>Need for mention of % of types of fies currently in DAM. Confirm with OL what types Other includes besides eps &amp; pdf files</t>
+  </si>
+  <si>
+    <t>Separate staff from non-staff users</t>
+  </si>
+  <si>
+    <t>Add Dept column for possible Dept use breakdown</t>
+  </si>
+  <si>
+    <t>Determine how to address NULL values</t>
+  </si>
+  <si>
+    <t>6/4: possible JOINS after cleaning</t>
+  </si>
+  <si>
+    <t>6/4: Need to finish definition tabs to confirm correct DataSets are pulled for data on all Success Behaviors</t>
+  </si>
+  <si>
+    <t>6/4: Bold cells will be needed for Data Story</t>
+  </si>
+  <si>
+    <t>Remove columns not needed</t>
+  </si>
+  <si>
+    <t>Finalize columns needed</t>
+  </si>
+  <si>
+    <t>Searched (times)</t>
+  </si>
+  <si>
+    <t>Searches_Per_Terms</t>
+  </si>
+  <si>
+    <t>Keyword Searches: keywords</t>
+  </si>
+  <si>
+    <t>Original Filename: Searches_Per_Terms</t>
+  </si>
+  <si>
+    <t>Keywords used for search</t>
+  </si>
+  <si>
+    <t>COUNT of times each keyword used for search</t>
+  </si>
+  <si>
+    <t>May not need to include for Capstone</t>
+  </si>
+  <si>
+    <t>6/4: Meet with OL for Q&amp;A</t>
+  </si>
+  <si>
+    <t>Not Needed now, but could be used later for detailed breakdown of User permissions.</t>
+  </si>
+  <si>
+    <t>Ask</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange Logic </t>
+  </si>
+  <si>
+    <t>Are clipboards and shares duplicate reports, or is one limited data when I extract without parameters?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">users: What are the Contact Type differences ? Client, Company, Model, Source, Staff </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>BackEnd advanced search</t>
     </r>
     <r>
@@ -1213,59 +1900,49 @@
       </rPr>
       <t>FrontEnd quick search</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-  </si>
-  <si>
-    <t>* Describe what each of these identifiers are.</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Not needed</t>
-  </si>
-  <si>
-    <t>NOTES:</t>
-  </si>
-  <si>
-    <t>Meet with OL for Q&amp;A. May not need downloads and shares DataSets due to User's action, Context, and Asset Form on clipboards</t>
-  </si>
-  <si>
-    <t>file_size</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>possible JOINS</t>
-  </si>
-  <si>
-    <t>SUCCESS BEHAVIOR: downloads</t>
-  </si>
-  <si>
-    <t>May need to swap out downloads DataSet with "Fulllogs of views and downloads Full"</t>
-  </si>
-  <si>
-    <t>May want to add a Department column to users for staff breakdown across VU</t>
-  </si>
-  <si>
-    <t>Need to finish definition tabs to confirm correct DataSets are pulled for data on all Success Behaviors</t>
+  </si>
+  <si>
+    <t>searches: What do each of these identifiers mean? BackEnd advanced search, BackEnd quick search, FrontEnd advanced search, FrontEnd quick search</t>
+  </si>
+  <si>
+    <t>Unique &amp; NULL, chosen by the User</t>
+  </si>
+  <si>
+    <t>downloads: What is Story under Asset Types? Image, Multimedia, Story, Video</t>
+  </si>
+  <si>
+    <t>downloads: What do my Asset types differ form the pull down list in the report parameters field?</t>
+  </si>
+  <si>
+    <t>* Full list in report field: All, Image, Audio, Video, Other, Virtual folder, Folder, Object, Task</t>
+  </si>
+  <si>
+    <t>Confirm Story, and Multimedia definitions. Full list in report field: All, Image, Audio, Video, Other, Virtual folder, Folder, Object, Task</t>
+  </si>
+  <si>
+    <t>*What does Search mean in this field? Full list in parameter field: Folder, Virtual folder, Order, Clipboard, Share, Search, All.</t>
+  </si>
+  <si>
+    <t>clipboards: What is the difference between User's Actions and Context?</t>
+  </si>
+  <si>
+    <t>clipboards: What causes NULL in Context types?</t>
+  </si>
+  <si>
+    <t>clipboards: What does Search mean in Context field, and why can't I set that parameter in the report field search?</t>
+  </si>
+  <si>
+    <t>If I would like to create my custom report on the reports page, would I be able to do that on my own, or does OL need to build it?</t>
+  </si>
+  <si>
+    <t>Daniel?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,7 +2016,15 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1377,7 +2062,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1453,32 +2138,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1525,8 +2184,173 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1538,7 +2362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1547,7 +2371,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1557,25 +2380,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1589,20 +2397,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1612,37 +2420,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,502 +2836,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE59ED40-8E80-4B6A-AE01-CB602EF195C5}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="77"/>
+      <c r="K1" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="I14" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="I16" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="44" t="s">
+      <c r="I17" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="81"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="50">
-        <v>43986</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="53"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="43">
-        <v>43986</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
-        <v>43986</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E27" s="51"/>
-    </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
-        <v>43986</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="51"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="43">
-        <v>43986</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>202</v>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2464,12 +3416,319 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB175F-E5AC-495D-A781-CA53C418390F}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="144" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB8254A-A21B-423F-ABA7-B07EA0CD3908}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78664C68-1B8A-4A23-A7F5-5B1D53EDCC7B}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2483,642 +3742,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6"/>
       <c r="G1" s="4" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="G2" s="26">
         <v>1</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>96</v>
+      <c r="H2" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="G11">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
       <c r="G13">
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="5"/>
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>122</v>
+      <c r="B18" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="5"/>
       <c r="G18">
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5"/>
       <c r="G19">
         <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E20" s="5"/>
       <c r="G20">
         <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5"/>
       <c r="G21">
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
       <c r="E22" s="5"/>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
+      <c r="A25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>103</v>
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE634A7-3EEA-4035-B489-773F7C9A395D}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2BCE93-4703-4E7E-A633-2C3473CEC592}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.44140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="107.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-    </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="108" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>151</v>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3127,224 +4282,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57E1535-3C4C-46C4-B9BD-85EA0E9A900B}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5F53E3-6F84-4546-AC23-532134326014}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.88671875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="60" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="69.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.77734375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="59.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>39</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="21"/>
       <c r="C10" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>41</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>9</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="21"/>
       <c r="C15" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
-        <v>42</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="A16" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="21"/>
       <c r="C16" s="21" t="s">
-        <v>181</v>
+        <v>253</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>183</v>
-      </c>
+      <c r="A17" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="21"/>
       <c r="C18" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>193</v>
+        <v>81</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3353,47 +4471,1292 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB175F-E5AC-495D-A781-CA53C418390F}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51762263-C3B1-47C4-A0CD-5E48338164A4}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE1EFEF-DCB5-4F1E-83C6-93D3CDEE067D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.21875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="21" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57E1535-3C4C-46C4-B9BD-85EA0E9A900B}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="60" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="50"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CE0239-92C0-440C-8E52-3332A5250A49}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="57.44140625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="A16" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>150</v>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="126" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE634A7-3EEA-4035-B489-773F7C9A395D}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.44140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="107.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="108" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/DAM_DataMap.xlsx
+++ b/DAM_DataMap.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newla\Desktop\NSS\Capstone Options\DAM Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A8037-21B1-463D-BE70-3537295BCE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036531C9-C5B7-49FB-9293-54671A342526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="871" activeTab="2" xr2:uid="{BE5A5793-8644-4C85-B61D-7334701E191C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="871" xr2:uid="{BE5A5793-8644-4C85-B61D-7334701E191C}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMap" sheetId="1" r:id="rId1"/>
     <sheet name="Storyboard-ToDo" sheetId="2" r:id="rId2"/>
     <sheet name="6-8-20 Questions" sheetId="12" r:id="rId3"/>
     <sheet name="AD-uploads" sheetId="10" r:id="rId4"/>
-    <sheet name="UD-users" sheetId="9" r:id="rId5"/>
+    <sheet name="UD-accounts" sheetId="9" r:id="rId5"/>
     <sheet name="UD-logins" sheetId="7" r:id="rId6"/>
     <sheet name="SB-searches" sheetId="4" r:id="rId7"/>
     <sheet name="SB-downloads" sheetId="8" r:id="rId8"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="358">
   <si>
     <t>clipboards</t>
   </si>
@@ -69,9 +69,6 @@
     <t>uploads</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>SUCCESS BEHAVIORS</t>
   </si>
   <si>
@@ -930,9 +927,6 @@
     <t>SUCCESS BEHAVIOR: downloads</t>
   </si>
   <si>
-    <t>Original Filename: Full_Logs_View_Downloads</t>
-  </si>
-  <si>
     <t>Origin</t>
   </si>
   <si>
@@ -1233,9 +1227,6 @@
     <t xml:space="preserve">Shape: </t>
   </si>
   <si>
-    <t>Standardize column names</t>
-  </si>
-  <si>
     <t>USER DATA: logins</t>
   </si>
   <si>
@@ -1536,9 +1527,6 @@
     <t>All_Accounts</t>
   </si>
   <si>
-    <t>USER DATA: users</t>
-  </si>
-  <si>
     <t>Original Filename: All_Accounts</t>
   </si>
   <si>
@@ -1686,15 +1674,6 @@
     <t>User's office phone</t>
   </si>
   <si>
-    <t>Refers to groups for system communications?</t>
-  </si>
-  <si>
-    <t>User's contact url, inconsistently used</t>
-  </si>
-  <si>
-    <t>User's office fax, inconsistently used</t>
-  </si>
-  <si>
     <t>Capstone, remove all OL</t>
   </si>
   <si>
@@ -1809,12 +1788,6 @@
     <t>May not need to include for Capstone</t>
   </si>
   <si>
-    <t>6/4: Meet with OL for Q&amp;A</t>
-  </si>
-  <si>
-    <t>Not Needed now, but could be used later for detailed breakdown of User permissions.</t>
-  </si>
-  <si>
     <t>Ask</t>
   </si>
   <si>
@@ -1935,14 +1908,245 @@
     <t>If I would like to create my custom report on the reports page, would I be able to do that on my own, or does OL need to build it?</t>
   </si>
   <si>
-    <t>Daniel?</t>
+    <t>ADD: Department</t>
+  </si>
+  <si>
+    <t>Standardize column names (User name, User, First name, Last name)</t>
+  </si>
+  <si>
+    <t>Complete Company column with Vanderbilt or Client</t>
+  </si>
+  <si>
+    <t>Original Filename: Full_Logs_Views_Downloads</t>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>USER DATA: accounts</t>
+  </si>
+  <si>
+    <t>Source has no email, Vanderbilt email addresses among Client, Remove all OL Users for Capstone</t>
+  </si>
+  <si>
+    <t>Cleaning Steps:</t>
+  </si>
+  <si>
+    <t>User Data:</t>
+  </si>
+  <si>
+    <t>Join accounts &amp; logins</t>
+  </si>
+  <si>
+    <t>Remove all orangelogic Users</t>
+  </si>
+  <si>
+    <t>Once Joined Retain Unique ID, Remove all Confidential info (names, email,e tc…)</t>
+  </si>
+  <si>
+    <t>6/4: Meet with OL for Q&amp;A. May be able to eliminate logins and clipboards due to Context column details</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Cleaning Steps Taken:</t>
+  </si>
+  <si>
+    <t>Added First and Last Name Column &amp; split from Name column</t>
+  </si>
+  <si>
+    <t>Removed all rows past 5/31/2020</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>Added to convert Accessed field to a Date data type.</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted Accessed column from "float64" (Apr 1 2020 1:34 PM) to date/time datatype </t>
+  </si>
+  <si>
+    <t>*Using find/replace removed times, replaced month abbreviation with number, removed spaced and replaced single digit numbers with double digits.</t>
+  </si>
+  <si>
+    <t>Changed Accessed column name to Date</t>
+  </si>
+  <si>
+    <t>Data Cleaning Steps Taken:</t>
+  </si>
+  <si>
+    <t>Custom/Date &amp; Time</t>
+  </si>
+  <si>
+    <t>original columns</t>
+  </si>
+  <si>
+    <t>Upload_Date</t>
+  </si>
+  <si>
+    <t>File_Size</t>
+  </si>
+  <si>
+    <t>Asset_Type</t>
+  </si>
+  <si>
+    <t>updated columns</t>
+  </si>
+  <si>
+    <t>Upload_By</t>
+  </si>
+  <si>
+    <t>Asset_ID</t>
+  </si>
+  <si>
+    <t>User_ID</t>
+  </si>
+  <si>
+    <t>Adding User ID to JOIN dataset to others</t>
+  </si>
+  <si>
+    <t>NEW COLUMN</t>
+  </si>
+  <si>
+    <t>Converted Date column to standard date being used for project</t>
+  </si>
+  <si>
+    <t>Updated to standardized column names fro project</t>
+  </si>
+  <si>
+    <t>Added User_ID column</t>
+  </si>
+  <si>
+    <t>Removed columns not needed</t>
+  </si>
+  <si>
+    <t>Removed all rows past 5/31/2020.</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Not Needed, inconsistently used, only data was from developer users</t>
+  </si>
+  <si>
+    <t>User's contact url</t>
+  </si>
+  <si>
+    <t>User's office fax</t>
+  </si>
+  <si>
+    <t>Data Cleaning Steps:</t>
+  </si>
+  <si>
+    <t>Provides clues for if the user is a staff person, developer, or client</t>
+  </si>
+  <si>
+    <t>Refers to groups for system communications and permissions</t>
+  </si>
+  <si>
+    <t>Updated to standard column names</t>
+  </si>
+  <si>
+    <t>Access_Date</t>
+  </si>
+  <si>
+    <t>Added for JOIN purposes</t>
+  </si>
+  <si>
+    <t>Converted date to standard for project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Column names </t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>Browser_Version</t>
+  </si>
+  <si>
+    <t>Login_ID</t>
+  </si>
+  <si>
+    <t>Standardized Column names</t>
+  </si>
+  <si>
+    <t>Removed unecessary columns</t>
+  </si>
+  <si>
+    <t>Contact_Type</t>
+  </si>
+  <si>
+    <t>Search_Type</t>
+  </si>
+  <si>
+    <t>Search_On</t>
+  </si>
+  <si>
+    <t>Search_Origin</t>
+  </si>
+  <si>
+    <t>Search_Date</t>
+  </si>
+  <si>
+    <t>Converted to standard date format</t>
+  </si>
+  <si>
+    <t>Added column for JOIN purposes</t>
+  </si>
+  <si>
+    <t>Updated Columns</t>
+  </si>
+  <si>
+    <t>Download_Date</t>
+  </si>
+  <si>
+    <t>Asset_Title</t>
+  </si>
+  <si>
+    <t>Updated Column Names</t>
+  </si>
+  <si>
+    <t>Asset_Legacy_ID</t>
+  </si>
+  <si>
+    <t>Asset_Create_Date</t>
+  </si>
+  <si>
+    <t>Added new columns for joining</t>
+  </si>
+  <si>
+    <t>Added new columns for JOIN purposes</t>
+  </si>
+  <si>
+    <t>After JOINS, remove User Names for confidentiality before posting online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,6 +2233,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2062,7 +2290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2358,11 +2586,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2429,33 +2683,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2510,18 +2747,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2836,10 +3102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE59ED40-8E80-4B6A-AE01-CB602EF195C5}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2851,65 +3117,65 @@
     <col min="5" max="5" width="8.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35"/>
+      <c r="C1" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="80"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="77"/>
+      <c r="F1" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83"/>
       <c r="K1" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>198</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>264</v>
+      <c r="H2" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="6"/>
@@ -2919,10 +3185,10 @@
       <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="38" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -2930,481 +3196,505 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="73" t="s">
+      <c r="A4" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F7" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="H7" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="F9" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H9" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="H12" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="61" t="s">
+      <c r="G13" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>59</v>
+      <c r="H13" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="H15" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="61" t="s">
+      <c r="F17" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H17" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="61" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="70" t="s">
+      <c r="F21" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="61" t="s">
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="61" t="s">
+      <c r="F22" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="52" t="s">
-        <v>221</v>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="85" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="80" t="s">
-        <v>260</v>
+      <c r="A26" s="72" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="81"/>
+      <c r="A27" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="73"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>270</v>
+      <c r="A28" s="34" t="s">
+        <v>292</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29" s="41"/>
+      <c r="A29" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="35"/>
       <c r="G29" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
-        <v>262</v>
+      <c r="A32" s="92" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
-        <v>261</v>
+      <c r="A33" s="92" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
-        <v>141</v>
+      <c r="A34" s="92" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>134</v>
+      <c r="A36" s="92" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3413,15 +3703,16 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB175F-E5AC-495D-A781-CA53C418390F}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A17" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3435,21 +3726,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="38"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="15"/>
     </row>
@@ -3459,25 +3750,27 @@
     </row>
     <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="C6" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -3489,147 +3782,231 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>123</v>
+        <v>140</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="16" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>118</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>67</v>
+        <v>116</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>298</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>119</v>
+        <v>66</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>298</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="144" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>80</v>
+      <c r="D18" s="28" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>81</v>
       </c>
       <c r="D20" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="D21" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3641,7 +4018,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3655,22 +4032,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="38"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -3682,40 +4059,40 @@
     </row>
     <row r="5" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3725,10 +4102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78664C68-1B8A-4A23-A7F5-5B1D53EDCC7B}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3743,274 +4120,274 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6"/>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="25"/>
       <c r="G2" s="26">
         <v>1</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
       <c r="G11">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+        <v>23</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12">
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
       <c r="G13">
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+        <v>39</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
       <c r="G15">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -4020,85 +4397,85 @@
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
       <c r="G17">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5"/>
       <c r="G18">
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="5"/>
       <c r="G19">
         <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="5"/>
       <c r="G20">
         <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5"/>
       <c r="G21">
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="5"/>
       <c r="G22">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -4109,53 +4486,78 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4181,10 +4583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2BCE93-4703-4E7E-A633-2C3473CEC592}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4195,85 +4597,91 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" t="s">
-        <v>276</v>
+        <v>279</v>
+      </c>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4283,186 +4691,263 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5F53E3-6F84-4546-AC23-532134326014}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="69.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.77734375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="59.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="16"/>
+    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.77734375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="59.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="B12" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>80</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4472,292 +4957,349 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51762263-C3B1-47C4-A0CD-5E48338164A4}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="16"/>
+    <col min="2" max="2" width="19.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21" t="s">
-        <v>81</v>
-      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21" t="s">
-        <v>81</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21" t="s">
-        <v>81</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="83" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>271</v>
+      <c r="E24" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4767,248 +5309,344 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE1EFEF-DCB5-4F1E-83C6-93D3CDEE067D}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.21875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="2" width="22" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.21875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="27" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="15"/>
+        <v>133</v>
+      </c>
+      <c r="B2" s="17"/>
       <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="15"/>
+        <v>131</v>
+      </c>
+      <c r="B3" s="17"/>
       <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="17"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" s="20" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="57" t="s">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" s="20" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="59" t="s">
+      <c r="E5" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="B9" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>182</v>
-      </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
-        <v>192</v>
-      </c>
+      <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
-        <v>81</v>
-      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
+      <c r="E18" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="E19" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>190</v>
-      </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
-        <v>197</v>
-      </c>
+      <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>80</v>
+        <v>194</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+    </row>
+    <row r="26" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5018,261 +5656,348 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57E1535-3C4C-46C4-B9BD-85EA0E9A900B}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.88671875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="60" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="2" width="20.77734375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="60" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="B2" s="17"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="50"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="50" t="s">
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="B17" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="B19" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="B20" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+      <c r="B22" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="64" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5280,258 +6005,358 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CE0239-92C0-440C-8E52-3332A5250A49}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="57.44140625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="2" width="28.109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="E11" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="126" x14ac:dyDescent="0.35">
+      <c r="E23" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="126" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>95</v>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5543,8 +6368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE634A7-3EEA-4035-B489-773F7C9A395D}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5558,18 +6383,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -5577,186 +6402,186 @@
     </row>
     <row r="5" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="108" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/DAM_DataMap.xlsx
+++ b/DAM_DataMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newla\Desktop\NSS\Capstone Options\DAM Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036531C9-C5B7-49FB-9293-54671A342526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B32DB-199E-4D83-BAE9-409A3A697AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="871" xr2:uid="{BE5A5793-8644-4C85-B61D-7334701E191C}"/>
+    <workbookView xWindow="9948" yWindow="276" windowWidth="12372" windowHeight="11016" tabRatio="871" activeTab="3" xr2:uid="{BE5A5793-8644-4C85-B61D-7334701E191C}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMap" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="369">
   <si>
     <t>clipboards</t>
   </si>
@@ -915,9 +915,6 @@
     <t>* Describe what each of these identifiers are.</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>Not needed</t>
   </si>
   <si>
@@ -1221,9 +1218,6 @@
     <t>User's IP address</t>
   </si>
   <si>
-    <t>Shape:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shape: </t>
   </si>
   <si>
@@ -1965,9 +1959,6 @@
     <t>float64</t>
   </si>
   <si>
-    <t>Added to convert Accessed field to a Date data type.</t>
-  </si>
-  <si>
     <t>Answers</t>
   </si>
   <si>
@@ -1980,15 +1971,9 @@
     <t>*Using find/replace removed times, replaced month abbreviation with number, removed spaced and replaced single digit numbers with double digits.</t>
   </si>
   <si>
-    <t>Changed Accessed column name to Date</t>
-  </si>
-  <si>
     <t>Data Cleaning Steps Taken:</t>
   </si>
   <si>
-    <t>Custom/Date &amp; Time</t>
-  </si>
-  <si>
     <t>original columns</t>
   </si>
   <si>
@@ -2140,6 +2125,54 @@
   </si>
   <si>
     <t>After JOINS, remove User Names for confidentiality before posting online</t>
+  </si>
+  <si>
+    <t>Added for Joining purposes</t>
+  </si>
+  <si>
+    <t>Added column for joining purposes.</t>
+  </si>
+  <si>
+    <t>First_Name and Last_Name separated by a space</t>
+  </si>
+  <si>
+    <t>udated columns</t>
+  </si>
+  <si>
+    <t>User_Actions</t>
+  </si>
+  <si>
+    <t>Share_Date</t>
+  </si>
+  <si>
+    <t>Not needed-removed</t>
+  </si>
+  <si>
+    <t>datetime64[ns]</t>
+  </si>
+  <si>
+    <t>Shape: 1207, 11</t>
+  </si>
+  <si>
+    <t>Shape: 76129, 15</t>
+  </si>
+  <si>
+    <t>Shape: 77021, 15</t>
+  </si>
+  <si>
+    <t>Shape: 43044, 17</t>
+  </si>
+  <si>
+    <t>Shape: 4485, 9</t>
+  </si>
+  <si>
+    <t>Shape: 4968, 13</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>Shape: 399041, 7</t>
   </si>
 </sst>
 </file>
@@ -2757,9 +2790,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2778,16 +2818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3104,7 +3135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE59ED40-8E80-4B6A-AE01-CB602EF195C5}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -3126,46 +3157,46 @@
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="80"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
       <c r="K1" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>136</v>
-      </c>
       <c r="I2" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3173,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>4</v>
@@ -3197,19 +3228,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" s="60" t="s">
         <v>57</v>
@@ -3218,24 +3249,24 @@
         <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="61" t="s">
         <v>62</v>
@@ -3244,70 +3275,70 @@
         <v>62</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H6" s="62" t="s">
         <v>63</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" s="62" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>65</v>
@@ -3318,22 +3349,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" s="30" t="s">
         <v>64</v>
@@ -3341,25 +3372,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>66</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3367,16 +3398,16 @@
         <v>60</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H11" s="64" t="s">
         <v>67</v>
@@ -3387,42 +3418,42 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H12" s="63" t="s">
         <v>68</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H13" s="64" t="s">
         <v>58</v>
@@ -3433,42 +3464,42 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C14" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="54" t="s">
         <v>148</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>69</v>
@@ -3479,19 +3510,19 @@
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H16" s="63" t="s">
         <v>60</v>
@@ -3502,16 +3533,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" s="54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H17" s="63" t="s">
         <v>61</v>
@@ -3522,16 +3553,16 @@
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H18" s="65" t="s">
         <v>70</v>
@@ -3542,16 +3573,16 @@
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I19" s="41" t="s">
         <v>60</v>
@@ -3559,13 +3590,13 @@
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="76" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I20" s="41" t="s">
         <v>61</v>
@@ -3573,10 +3604,10 @@
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>59</v>
@@ -3587,10 +3618,10 @@
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>2</v>
@@ -3598,27 +3629,27 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="85" t="s">
-        <v>280</v>
+      <c r="C24" s="78" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="72" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B27" s="72"/>
       <c r="C27" s="37"/>
@@ -3626,75 +3657,75 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B29" s="35"/>
       <c r="G29" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="92" t="s">
-        <v>255</v>
+      <c r="A32" s="85" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="92" t="s">
-        <v>254</v>
+      <c r="A33" s="85" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="92" t="s">
-        <v>138</v>
+      <c r="A34" s="85" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92" t="s">
-        <v>281</v>
+      <c r="A36" s="85" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3709,302 +3740,313 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB175F-E5AC-495D-A781-CA53C418390F}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.88671875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="62.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="2" width="21.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="66.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="17"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>308</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="72" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="144" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="36" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
-        <v>304</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -4032,7 +4074,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="33"/>
@@ -4040,14 +4082,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -4073,26 +4115,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4152,13 +4194,13 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
       <c r="G3">
         <v>2</v>
       </c>
@@ -4170,13 +4212,13 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
       <c r="G4">
         <v>2</v>
       </c>
@@ -4188,13 +4230,13 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5">
         <v>2</v>
       </c>
@@ -4206,13 +4248,13 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
       <c r="G6">
         <v>3</v>
       </c>
@@ -4224,13 +4266,13 @@
       <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7">
         <v>4</v>
       </c>
@@ -4242,13 +4284,13 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="G8">
         <v>5</v>
       </c>
@@ -4260,13 +4302,13 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9">
         <v>5</v>
       </c>
@@ -4278,13 +4320,13 @@
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
       <c r="G10">
         <v>6</v>
       </c>
@@ -4296,13 +4338,13 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11">
         <v>7</v>
       </c>
@@ -4314,13 +4356,13 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
       <c r="G12">
         <v>7</v>
       </c>
@@ -4332,13 +4374,13 @@
       <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
       <c r="G13">
         <v>8</v>
       </c>
@@ -4350,13 +4392,13 @@
       <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
       <c r="G14">
         <v>8</v>
       </c>
@@ -4368,13 +4410,13 @@
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
       <c r="G15">
         <v>8</v>
       </c>
@@ -4404,13 +4446,13 @@
       <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
       <c r="G17">
         <v>9</v>
       </c>
@@ -4486,7 +4528,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -4537,31 +4579,37 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B11:F11"/>
@@ -4570,12 +4618,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4597,91 +4639,91 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" t="s">
         <v>265</v>
-      </c>
-      <c r="B10" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4693,13 +4735,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5F53E3-6F84-4546-AC23-532134326014}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.88671875" style="16" bestFit="1" customWidth="1"/>
@@ -4710,7 +4752,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -4718,14 +4760,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="17"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>131</v>
+        <v>368</v>
       </c>
       <c r="B3" s="17"/>
       <c r="D3" s="15"/>
@@ -4737,10 +4779,10 @@
     </row>
     <row r="5" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>71</v>
@@ -4754,19 +4796,20 @@
     </row>
     <row r="6" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="21"/>
+        <v>227</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="21"/>
@@ -4775,7 +4818,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="21"/>
@@ -4786,13 +4829,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>75</v>
@@ -4801,20 +4844,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="21"/>
+        <v>307</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="21"/>
@@ -4823,15 +4868,17 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="21"/>
+        <v>304</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>367</v>
+      </c>
       <c r="D12" s="21"/>
       <c r="E12" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -4841,13 +4888,13 @@
       <c r="B13" s="43"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="21"/>
@@ -4855,45 +4902,49 @@
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" s="21"/>
+      <c r="A15" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D15" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B16" s="44"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="21"/>
@@ -4905,49 +4956,49 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="86" t="s">
-        <v>316</v>
+      <c r="A19" s="79" t="s">
+        <v>311</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4957,10 +5008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51762263-C3B1-47C4-A0CD-5E48338164A4}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4975,7 +5026,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -4984,7 +5035,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="17"/>
       <c r="D2" s="15"/>
@@ -4992,7 +5043,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="B3" s="17"/>
       <c r="D3" s="15"/>
@@ -5006,10 +5057,10 @@
     </row>
     <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>71</v>
@@ -5023,27 +5074,31 @@
     </row>
     <row r="6" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B6" s="43"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="21"/>
+        <v>319</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" s="21" t="s">
         <v>100</v>
       </c>
@@ -5051,12 +5106,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>320</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D8" s="21" t="s">
         <v>99</v>
       </c>
@@ -5064,12 +5121,14 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="21"/>
+        <v>309</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D9" s="21" t="s">
         <v>97</v>
       </c>
@@ -5077,12 +5136,14 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="43"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>79</v>
@@ -5090,79 +5151,91 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="21"/>
+        <v>317</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D11" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="43"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="43"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D13" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14" s="43"/>
-      <c r="C14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D14" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" s="43"/>
-      <c r="C15" s="21"/>
+      <c r="C15" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D15" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B16" s="43"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>79</v>
@@ -5170,75 +5243,87 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B17" s="43"/>
-      <c r="C17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D17" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18" s="43"/>
-      <c r="C18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D18" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="43"/>
-      <c r="C19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20" s="43"/>
-      <c r="C20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D20" s="21" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B21" s="43"/>
-      <c r="C21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D21" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B22" s="43"/>
-      <c r="C22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D22" s="21" t="s">
         <v>80</v>
       </c>
@@ -5248,10 +5333,12 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B23" s="43"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D23" s="21" t="s">
         <v>80</v>
       </c>
@@ -5261,10 +5348,12 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B24" s="43"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D24" s="21" t="s">
         <v>80</v>
       </c>
@@ -5274,32 +5363,56 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="21"/>
+        <v>318</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D25" s="23" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5311,14 +5424,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE1EFEF-DCB5-4F1E-83C6-93D3CDEE067D}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="22" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="16" customWidth="1"/>
     <col min="4" max="4" width="62.21875" style="16" customWidth="1"/>
     <col min="5" max="5" width="27" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="16"/>
@@ -5326,7 +5439,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -5335,7 +5448,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="17"/>
       <c r="D2" s="15"/>
@@ -5343,7 +5456,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>131</v>
+        <v>365</v>
       </c>
       <c r="B3" s="17"/>
       <c r="D3" s="15"/>
@@ -5357,10 +5470,10 @@
     </row>
     <row r="5" spans="1:5" s="20" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>311</v>
+        <v>302</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>306</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>71</v>
@@ -5374,12 +5487,14 @@
     </row>
     <row r="6" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="47"/>
+        <v>328</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>360</v>
+      </c>
       <c r="D6" s="48" t="s">
         <v>75</v>
       </c>
@@ -5387,12 +5502,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>79</v>
@@ -5400,14 +5515,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>334</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D8" s="46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>79</v>
@@ -5415,25 +5532,29 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="21"/>
+        <v>332</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D9" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>79</v>
@@ -5441,33 +5562,35 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -5480,51 +5603,51 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>79</v>
@@ -5532,14 +5655,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="C18" s="21"/>
+        <v>333</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D18" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>79</v>
@@ -5547,12 +5672,12 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>79</v>
@@ -5560,12 +5685,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>79</v>
@@ -5573,80 +5698,90 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="89" t="s">
-        <v>316</v>
+      <c r="A22" s="82" t="s">
+        <v>311</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="C22" s="21"/>
+        <v>309</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>296</v>
+      </c>
       <c r="D22" s="21" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="89" t="s">
-        <v>316</v>
+      <c r="A23" s="82" t="s">
+        <v>311</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="C23" s="21"/>
+        <v>319</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="89" t="s">
-        <v>316</v>
+      <c r="A24" s="82" t="s">
+        <v>311</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C24" s="21"/>
+        <v>320</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-    </row>
-    <row r="26" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
+      <c r="E24" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="80" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="83"/>
+      <c r="B25" s="84"/>
+    </row>
+    <row r="26" spans="1:5" s="80" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5658,14 +5793,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57E1535-3C4C-46C4-B9BD-85EA0E9A900B}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="20.77734375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="16" customWidth="1"/>
     <col min="4" max="4" width="73.88671875" style="15" customWidth="1"/>
     <col min="5" max="5" width="60" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="16"/>
@@ -5688,7 +5823,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>131</v>
+        <v>366</v>
       </c>
       <c r="B3" s="17"/>
       <c r="E3" s="15"/>
@@ -5700,10 +5835,10 @@
     </row>
     <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>71</v>
@@ -5717,12 +5852,14 @@
     </row>
     <row r="6" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="43"/>
+        <v>341</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>360</v>
+      </c>
       <c r="D6" s="22" t="s">
         <v>75</v>
       </c>
@@ -5730,12 +5867,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="21"/>
+        <v>309</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" s="22" t="s">
         <v>97</v>
       </c>
@@ -5743,25 +5882,29 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>334</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D8" s="46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" s="21"/>
+        <v>317</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D9" s="22" t="s">
         <v>98</v>
       </c>
@@ -5769,12 +5912,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C10" s="21"/>
+        <v>320</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="22" t="s">
         <v>99</v>
       </c>
@@ -5782,12 +5927,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" s="21"/>
+        <v>319</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D11" s="22" t="s">
         <v>100</v>
       </c>
@@ -5795,12 +5942,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="C12" s="21"/>
+        <v>337</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="22" t="s">
         <v>101</v>
       </c>
@@ -5808,10 +5957,12 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D13" s="22" t="s">
         <v>80</v>
       </c>
@@ -5819,10 +5970,12 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D14" s="22" t="s">
         <v>80</v>
       </c>
@@ -5830,10 +5983,12 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="C15" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D15" s="22" t="s">
         <v>102</v>
       </c>
@@ -5841,10 +5996,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" s="22" t="s">
         <v>103</v>
       </c>
@@ -5852,12 +6009,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="21"/>
+        <v>338</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D17" s="22" t="s">
         <v>104</v>
       </c>
@@ -5865,10 +6024,12 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D18" s="56" t="s">
         <v>105</v>
       </c>
@@ -5878,12 +6039,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="C19" s="21"/>
+        <v>339</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" s="22" t="s">
         <v>107</v>
       </c>
@@ -5893,12 +6056,14 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="21"/>
+        <v>201</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>367</v>
+      </c>
       <c r="D20" s="22" t="s">
         <v>109</v>
       </c>
@@ -5906,10 +6071,12 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>296</v>
+      </c>
       <c r="D21" s="22" t="s">
         <v>110</v>
       </c>
@@ -5917,14 +6084,16 @@
     </row>
     <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="C22" s="21"/>
+        <v>340</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D22" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E22" s="55" t="s">
         <v>111</v>
@@ -5932,22 +6101,20 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="21" t="s">
-        <v>112</v>
-      </c>
+      <c r="C23" s="21"/>
       <c r="D23" s="57" t="b">
         <v>0</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -5955,47 +6122,51 @@
         <v>80</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="89" t="s">
-        <v>316</v>
+      <c r="A25" s="82" t="s">
+        <v>311</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+        <v>332</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>355</v>
+      </c>
       <c r="E25" s="21" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B30" s="16"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6007,14 +6178,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CE0239-92C0-440C-8E52-3332A5250A49}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="28.109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="16" customWidth="1"/>
     <col min="4" max="4" width="78.6640625" style="16" customWidth="1"/>
     <col min="5" max="5" width="57.44140625" style="15" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="16"/>
@@ -6022,7 +6193,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -6030,14 +6201,14 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="17"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="B3" s="17"/>
       <c r="D3" s="15"/>
@@ -6049,10 +6220,10 @@
     </row>
     <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>71</v>
@@ -6066,12 +6237,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="21"/>
+        <v>345</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>360</v>
+      </c>
       <c r="D6" s="22" t="s">
         <v>75</v>
       </c>
@@ -6079,25 +6252,29 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="21"/>
+        <v>139</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>309</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D8" s="21" t="s">
         <v>97</v>
       </c>
@@ -6105,49 +6282,57 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="21"/>
+        <v>332</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D9" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="C10" s="21"/>
+        <v>334</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D11" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="21" t="s">
         <v>80</v>
       </c>
@@ -6157,90 +6342,104 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" s="21"/>
+        <v>317</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D13" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D14" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" s="21"/>
+        <v>308</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D15" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="C16" s="21"/>
+        <v>305</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="C17" s="21"/>
+        <v>348</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D17" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="C18" s="21"/>
+        <v>349</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>360</v>
+      </c>
       <c r="D18" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" s="21"/>
+        <v>346</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" s="22" t="s">
         <v>76</v>
       </c>
@@ -6248,7 +6447,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -6256,28 +6455,32 @@
         <v>80</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D21" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D22" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E22" s="22"/>
     </row>
@@ -6286,7 +6489,9 @@
         <v>59</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>296</v>
+      </c>
       <c r="D23" s="21" t="s">
         <v>80</v>
       </c>
@@ -6299,7 +6504,9 @@
         <v>69</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D24" s="22" t="s">
         <v>89</v>
       </c>
@@ -6308,55 +6515,59 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="89" t="s">
-        <v>316</v>
+      <c r="A25" s="82" t="s">
+        <v>311</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" s="21"/>
+        <v>319</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="89" t="s">
-        <v>316</v>
+      <c r="A26" s="82" t="s">
+        <v>311</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C26" s="21"/>
+        <v>320</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="D26" s="21"/>
       <c r="E26" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -6366,10 +6577,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE634A7-3EEA-4035-B489-773F7C9A395D}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6389,12 +6600,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -6418,7 +6629,9 @@
       <c r="A6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="C6" s="22" t="s">
         <v>74</v>
       </c>
@@ -6430,31 +6643,37 @@
       <c r="A7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="C7" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="C8" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="C9" s="22" t="s">
         <v>75</v>
       </c>
@@ -6466,7 +6685,9 @@
       <c r="A10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="C10" s="22" t="s">
         <v>65</v>
       </c>
@@ -6475,98 +6696,108 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="B12" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+    <row r="13" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="D13" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="B14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="B15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+      <c r="D15" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
+      <c r="B16" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="108" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+    <row r="17" spans="1:4" ht="108" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B17" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D17" s="27" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="C18" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>79</v>
@@ -6574,13 +6805,29 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
+      <c r="B20" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D20" s="22" t="s">
         <v>79</v>
       </c>
     </row>
